--- a/data/trans_media/IQ3006_MoAR-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ3006_MoAR-Habitat-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,27 +795,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,41</t>
+          <t>13,22; 16,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,73</t>
+          <t>13,11; 16,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 18,2</t>
+          <t>12,2; 18,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 14,8</t>
+          <t>8,86; 14,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,74</t>
+          <t>11,89; 14,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,24 +825,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 14,94</t>
+          <t>11,82; 15,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 15,41</t>
+          <t>13,01; 15,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 18,03</t>
+          <t>12,11; 17,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,98</t>
+          <t>10,32; 13,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,54</t>
+          <t>10,22; 15,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,22</t>
+          <t>9,0; 13,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 15,19</t>
+          <t>9,29; 15,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 14,58</t>
+          <t>11,61; 14,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,8</t>
+          <t>10,28; 15,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 13,7</t>
+          <t>10,68; 13,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 14,38</t>
+          <t>11,49; 14,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 13,97</t>
+          <t>10,2; 14,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,41</t>
+          <t>10,61; 15,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,88</t>
+          <t>5,95; 12,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 12,97</t>
+          <t>11,0; 13,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,36</t>
+          <t>15,52; 21,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 17,22</t>
+          <t>11,64; 17,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 17,33</t>
+          <t>10,43; 17,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,64</t>
+          <t>12,13; 17,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 14,89</t>
+          <t>10,36; 15,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 13,95</t>
+          <t>11,26; 13,96</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 14,38</t>
+          <t>10,18; 14,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 16,32</t>
+          <t>12,19; 16,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 17,04</t>
+          <t>9,01; 16,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 15,62</t>
+          <t>11,15; 15,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 16,94</t>
+          <t>12,67; 17,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,45</t>
+          <t>11,63; 15,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 14,1</t>
+          <t>11,31; 14,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 15,94</t>
+          <t>12,81; 15,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,99</t>
+          <t>11,52; 15,01</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,51</t>
+          <t>11,52; 13,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,73</t>
+          <t>12,39; 14,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,03</t>
+          <t>11,14; 13,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,0</t>
+          <t>12,05; 14,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 14,79</t>
+          <t>12,78; 14,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,87; 14,42</t>
+          <t>11,87; 14,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,08; 13,69</t>
+          <t>12,08; 13,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,35</t>
+          <t>12,73; 14,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,93; 13,8</t>
+          <t>11,93; 13,76</t>
         </is>
       </c>
     </row>
